--- a/ExampleExcel.xlsx
+++ b/ExampleExcel.xlsx
@@ -1,45 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepos\GitTest\perplexity-poc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E85334B-B581-40C9-B679-3ADBCE018A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Prompt</t>
+  </si>
+  <si>
+    <t>write code to find and merge overlapping arrays</t>
+  </si>
+  <si>
+    <t>write code to find palindrome in python</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -65,13 +65,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -86,44 +94,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -151,14 +159,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -186,6 +211,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -197,180 +239,136 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
+            <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
     <a:lnDef>
       <a:spPr/>
       <a:bodyPr/>
@@ -392,66 +390,43 @@
     </a:lnDef>
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Prompt</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Response</v>
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" xml:space="preserve">
-      <c r="A2" t="str">
-        <v>write code to find and merge overlapping arrays</v>
+    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
-      <c r="B2" t="str" xml:space="preserve">
-        <v xml:space="preserve">To find and merge overlapping arrays in Python, you can follow these steps:
-Sort the arrays based on their starting points.
-Iterate through the sorted arrays and merge them if they overlap.
-Here’s a sample implementation:
-python
-def merge_overlapping_arrays(arrays):
-    # Step 1: Sort the arrays based on the starting point
-    sorted_arrays = sorted(arrays, key=lambda x: x[0])
-    merged = []
-    for current in sorted_arrays:
-        # If merged is empty or there is no overlap, append the current array
-        if not merged or merged[-1][1] &lt; current[0]:
-            merged.append(current)
-        else:
-            # There is an overlap, so merge the current array with the last one in merged
-            merged[-1][1] = max(merged[-1][1], current[1])
-    return merged
-# Example usage
-arrays = [[1, 3], [2, 4], [5, 7], [6, 8]]
-merged_arrays = merge_overlapping_arrays(arrays)
-print(merged_arrays)  # Output: [[1, 4], [5, 8]]
-Explanation of the Code
-Step-by-Step Breakdown
-Sorting: The input arrays are sorted based on their starting values using sorted(). This ensures that we can efficiently check for overlaps.
-Merging:
-We initialize an empty list called merged.
-For each array in the sorted list:
-If merged is empty or if the last merged array does not overlap with the current one (i.e., the end of the last array is less than the start of the current one), we simply append the current array to merged.
-If there is an overlap, we merge by updating the end of the last merged array to be the maximum end of both arrays.
-Example
-Given the input [[1, 3], [2, 4], [5, 7], [6, 8]], the output will be [[1, 4], [5, 8]], as the first two arrays overlap and are merged into [1, 4], while [5, 7] and [6, 8] also overlap and are merged into [5, 8].
-Feel free to modify this code according to your specific needs!</v>
+    </row>
+    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError sqref="A1:A3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>